--- a/vortex_ring_simulation.xlsx
+++ b/vortex_ring_simulation.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\Nadine\CIS5650-Final-Project-GPU-VPM\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Nphi</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>nc = 3</t>
+  </si>
+  <si>
+    <t>Num Particles</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2066,628 @@
           <c:yMode val="edge"/>
           <c:x val="0.87352045975129966"/>
           <c:y val="0.44823643833462762"/>
-          <c:w val="9.0209865539569126E-2"/>
+          <c:w val="8.7841653085454871E-2"/>
+          <c:h val="0.12310520402100961"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>GPU-VPM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Nphi &amp; nc vs. Num Particles</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33500662176720469"/>
+          <c:y val="1.1550395781690507E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11925817644294977"/>
+          <c:y val="0.12478587761418417"/>
+          <c:w val="0.7383487605966742"/>
+          <c:h val="0.76309609544776202"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Nphi = 100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>vortex_ring_simulation!$K$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>nc = 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nc = 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nc = 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nc = 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vortex_ring_simulation!$K$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Nphi = 200</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>vortex_ring_simulation!$K$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>nc = 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nc = 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nc = 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nc = 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vortex_ring_simulation!$K$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Nphi = 300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF3333"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>vortex_ring_simulation!$K$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>nc = 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nc = 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nc = 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nc = 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vortex_ring_simulation!$K$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="621596752"/>
+        <c:axId val="621601456"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="621596752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>nc  </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621601456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="621601456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3282843445761028E-2"/>
+              <c:y val="0.40475546753945996"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621596752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87352045975129966"/>
+          <c:y val="0.44823643833462762"/>
+          <c:w val="8.7734526145386599E-2"/>
           <c:h val="0.12310520402100961"/>
         </c:manualLayout>
       </c:layout>
@@ -2213,6 +2837,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3237,20 +3901,541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>509442</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5772</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160192</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>164522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>223692</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152978</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>128442</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3294,6 +4479,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>75407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>411669</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>134577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3565,15 +4782,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3583,8 +4804,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -3594,8 +4824,17 @@
       <c r="C2">
         <v>186997</v>
       </c>
+      <c r="F2">
+        <v>1800</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -3605,8 +4844,17 @@
       <c r="C3">
         <v>508209</v>
       </c>
+      <c r="F3">
+        <v>5000</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -3616,8 +4864,29 @@
       <c r="C4" s="1">
         <v>1990000</v>
       </c>
+      <c r="F4">
+        <v>9800</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -3627,8 +4896,29 @@
       <c r="C5">
         <v>385234</v>
       </c>
+      <c r="F5">
+        <v>3600</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>1800</v>
+      </c>
+      <c r="M5">
+        <v>5000</v>
+      </c>
+      <c r="N5">
+        <v>9800</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200</v>
       </c>
@@ -3638,8 +4928,29 @@
       <c r="C6" s="1">
         <v>2040000</v>
       </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>3600</v>
+      </c>
+      <c r="M6">
+        <v>10000</v>
+      </c>
+      <c r="N6">
+        <v>19600</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -3649,8 +4960,29 @@
       <c r="C7" s="1">
         <v>7840000</v>
       </c>
+      <c r="F7">
+        <v>19600</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>5400</v>
+      </c>
+      <c r="M7">
+        <v>15000</v>
+      </c>
+      <c r="N7">
+        <v>29400</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>300</v>
       </c>
@@ -3660,8 +4992,17 @@
       <c r="C8">
         <v>548465</v>
       </c>
+      <c r="F8">
+        <v>5400</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -3671,8 +5012,28 @@
       <c r="C9" s="1">
         <v>4500000</v>
       </c>
+      <c r="F9">
+        <v>15000</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>29400</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3686,7 +5047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -3700,7 +5061,7 @@
         <v>1990000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>200</v>
       </c>
@@ -3714,7 +5075,7 @@
         <v>7840000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>300</v>
       </c>
@@ -3900,6 +5261,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/vortex_ring_simulation.xlsx
+++ b/vortex_ring_simulation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Nphi</t>
   </si>
@@ -53,12 +53,78 @@
   <si>
     <t>Num Particles</t>
   </si>
+  <si>
+    <t>Simulation 1:</t>
+  </si>
+  <si>
+    <t>2 vortex rings</t>
+  </si>
+  <si>
+    <t>10000 particles (nphi = 200, ncs = 2)</t>
+  </si>
+  <si>
+    <t>1000 steps</t>
+  </si>
+  <si>
+    <t>dt = 2.55922e-2</t>
+  </si>
+  <si>
+    <t>Julia direct: --</t>
+  </si>
+  <si>
+    <t>Julia FMM: 6 min 43 sec</t>
+  </si>
+  <si>
+    <t>ours: 1.0754e6 ms</t>
+  </si>
+  <si>
+    <t>Simulation 2:</t>
+  </si>
+  <si>
+    <t>3600 particles (nphi = 200, ncs = 1)</t>
+  </si>
+  <si>
+    <t>Performance analysis:</t>
+  </si>
+  <si>
+    <t>Julia direct: 1h 15min 58sec</t>
+  </si>
+  <si>
+    <t>Julia FMM: 2 min 7 s</t>
+  </si>
+  <si>
+    <t>Ours: 3 mins 23 s</t>
+  </si>
+  <si>
+    <t>23x speedup</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>FMM</t>
+  </si>
+  <si>
+    <t>127,000ms</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>GPU-VPM</t>
+  </si>
+  <si>
+    <t>FLOWVPM (CPU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +258,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="33">
@@ -535,9 +606,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2066,7 +2141,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.87352045975129966"/>
           <c:y val="0.44823643833462762"/>
-          <c:w val="8.7841653085454871E-2"/>
+          <c:w val="7.1182651304095665E-2"/>
           <c:h val="0.12310520402100961"/>
         </c:manualLayout>
       </c:layout>
@@ -2757,6 +2832,475 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Vortex</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> Ring Simulation Method vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Time(ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vortex_ring_simulation!$T$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3333"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>vortex_ring_simulation!$S$18:$S$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FLOWVPM (CPU)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU-VPM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vortex_ring_simulation!$T$18:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4558000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="507378904"/>
+        <c:axId val="606317152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507378904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Implementation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> Method</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606317152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606317152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507378904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2877,6 +3421,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4390,6 +4974,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4511,6 +5598,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529168</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>783167</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4782,19 +5899,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="Z60" sqref="Z60"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4814,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>100</v>
       </c>
@@ -4834,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>100</v>
       </c>
@@ -4854,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>100</v>
       </c>
@@ -4886,7 +6009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>200</v>
       </c>
@@ -4918,7 +6041,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>200</v>
       </c>
@@ -4950,7 +6073,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>200</v>
       </c>
@@ -4982,7 +6105,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>300</v>
       </c>
@@ -5002,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>300</v>
       </c>
@@ -5022,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="F10">
         <v>29400</v>
       </c>
@@ -5033,7 +6156,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5046,8 +6174,11 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>100</v>
       </c>
@@ -5060,8 +6191,11 @@
       <c r="D13" s="1">
         <v>1990000</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>200</v>
       </c>
@@ -5074,8 +6208,11 @@
       <c r="D14" s="1">
         <v>7840000</v>
       </c>
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>300</v>
       </c>
@@ -5085,8 +6222,51 @@
       <c r="C15" s="1">
         <v>4500000</v>
       </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
+      <c r="K17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="3">
+        <v>4558000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>203000</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18">
+        <v>4558000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -5105,8 +6285,17 @@
       <c r="H19" t="s">
         <v>2</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="3">
+        <v>203000</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>100</v>
       </c>
@@ -5125,8 +6314,14 @@
       <c r="H20">
         <v>186997</v>
       </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="3">
+        <v>127000</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>100</v>
       </c>
@@ -5145,8 +6340,11 @@
       <c r="H21">
         <v>385234</v>
       </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>100</v>
       </c>
@@ -5165,8 +6363,11 @@
       <c r="H22">
         <v>548465</v>
       </c>
+      <c r="K22" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>200</v>
       </c>
@@ -5176,8 +6377,11 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>200</v>
       </c>
@@ -5187,8 +6391,11 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
+      <c r="K24" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>200</v>
       </c>
@@ -5207,8 +6414,11 @@
       <c r="H25" t="s">
         <v>2</v>
       </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>300</v>
       </c>
@@ -5227,8 +6437,11 @@
       <c r="H26">
         <v>186997</v>
       </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>300</v>
       </c>
@@ -5247,8 +6460,11 @@
       <c r="H27">
         <v>508209</v>
       </c>
+      <c r="K27" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="F28">
         <v>100</v>
       </c>
@@ -5257,6 +6473,19 @@
       </c>
       <c r="H28" s="1">
         <v>1990000</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="K29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="K30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
